--- a/Jogos_do_Dia/2023-07-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>League</t>
   </si>
@@ -130,6 +130,9 @@
     <t>USA MLS</t>
   </si>
   <si>
+    <t>USA USL Championship</t>
+  </si>
+  <si>
     <t>17:30:00</t>
   </si>
   <si>
@@ -139,16 +142,43 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
     <t>Sport Boys</t>
   </si>
   <si>
     <t>Lanús</t>
   </si>
   <si>
+    <t>Inter Miami</t>
+  </si>
+  <si>
     <t>Orlando City</t>
   </si>
   <si>
-    <t>Inter Miami</t>
+    <t>FC Dallas</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>Las Vegas Lights</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>LA Galaxy</t>
   </si>
   <si>
     <t>Academia Cantolao</t>
@@ -157,10 +187,25 @@
     <t>Vélez Sarsfield</t>
   </si>
   <si>
+    <t>Columbus Crew</t>
+  </si>
+  <si>
     <t>Toronto</t>
   </si>
   <si>
-    <t>Columbus Crew</t>
+    <t>DC United</t>
+  </si>
+  <si>
+    <t>Monterey Bay</t>
+  </si>
+  <si>
+    <t>New Mexico United</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
   </si>
 </sst>
 </file>
@@ -522,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,25 +688,25 @@
         <v>45111</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H2">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I2">
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -676,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="O2">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P2">
         <v>1.36</v>
@@ -750,16 +795,16 @@
         <v>45111</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2.15</v>
@@ -857,25 +902,25 @@
         <v>45111</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -890,22 +935,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="O4">
-        <v>1.94</v>
+        <v>2.11</v>
       </c>
       <c r="P4">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -917,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X4">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="Y4">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="Z4">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AA4">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -964,103 +1009,638 @@
         <v>45111</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>1.93</v>
+      </c>
+      <c r="H5">
+        <v>3.68</v>
+      </c>
+      <c r="I5">
+        <v>3.63</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.8</v>
+      </c>
+      <c r="O5">
+        <v>1.95</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
+        <v>2.75</v>
+      </c>
+      <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1.45</v>
+      </c>
+      <c r="X5">
+        <v>0.4</v>
+      </c>
+      <c r="Y5">
+        <v>1.54</v>
+      </c>
+      <c r="Z5">
+        <v>1.09</v>
+      </c>
+      <c r="AA5">
+        <v>2.63</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>2.18</v>
+      </c>
+      <c r="H6">
+        <v>3.67</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.93</v>
+      </c>
+      <c r="O6">
+        <v>1.93</v>
+      </c>
+      <c r="P6">
+        <v>1.36</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1.67</v>
+      </c>
+      <c r="S6">
+        <v>2.1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1.26</v>
+      </c>
+      <c r="Z6">
+        <v>1.55</v>
+      </c>
+      <c r="AA6">
+        <v>2.81</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>1.87</v>
+      </c>
+      <c r="H7">
+        <v>3.35</v>
+      </c>
+      <c r="I7">
+        <v>3.75</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.82</v>
+      </c>
+      <c r="O7">
+        <v>1.88</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="Q7">
+        <v>2.75</v>
+      </c>
+      <c r="R7">
+        <v>1.83</v>
+      </c>
+      <c r="S7">
+        <v>1.83</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>1.38</v>
+      </c>
+      <c r="Y7">
+        <v>1.49</v>
+      </c>
+      <c r="Z7">
+        <v>1.13</v>
+      </c>
+      <c r="AA7">
+        <v>2.62</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>3.1</v>
+      </c>
+      <c r="H8">
+        <v>3.4</v>
+      </c>
+      <c r="I8">
+        <v>2.15</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.87</v>
+      </c>
+      <c r="O8">
+        <v>1.87</v>
+      </c>
+      <c r="P8">
+        <v>1.36</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>1.91</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.2</v>
+      </c>
+      <c r="X8">
+        <v>1.11</v>
+      </c>
+      <c r="Y8">
+        <v>2.07</v>
+      </c>
+      <c r="Z8">
+        <v>1.31</v>
+      </c>
+      <c r="AA8">
+        <v>3.38</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45111</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>2.4</v>
-      </c>
-      <c r="H5">
-        <v>3.2</v>
-      </c>
-      <c r="I5">
-        <v>2.6</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1.68</v>
-      </c>
-      <c r="O5">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>2.21</v>
+      </c>
+      <c r="H9">
+        <v>3.52</v>
+      </c>
+      <c r="I9">
+        <v>3.05</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.9</v>
+      </c>
+      <c r="O9">
+        <v>1.71</v>
+      </c>
+      <c r="P9">
+        <v>1.44</v>
+      </c>
+      <c r="Q9">
+        <v>2.63</v>
+      </c>
+      <c r="R9">
+        <v>1.91</v>
+      </c>
+      <c r="S9">
+        <v>1.91</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.64</v>
+      </c>
+      <c r="Y9">
+        <v>1.48</v>
+      </c>
+      <c r="Z9">
+        <v>1.18</v>
+      </c>
+      <c r="AA9">
+        <v>2.66</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>3.45</v>
+      </c>
+      <c r="H10">
+        <v>3.4</v>
+      </c>
+      <c r="I10">
         <v>2.08</v>
       </c>
-      <c r="P5">
+      <c r="J10">
+        <v>1.01</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>1.15</v>
+      </c>
+      <c r="M10">
+        <v>4.75</v>
+      </c>
+      <c r="N10">
+        <v>1.72</v>
+      </c>
+      <c r="O10">
+        <v>2.1</v>
+      </c>
+      <c r="P10">
+        <v>1.29</v>
+      </c>
+      <c r="Q10">
+        <v>3.5</v>
+      </c>
+      <c r="R10">
+        <v>1.44</v>
+      </c>
+      <c r="S10">
+        <v>2.63</v>
+      </c>
+      <c r="T10">
+        <v>1.6</v>
+      </c>
+      <c r="U10">
+        <v>1.28</v>
+      </c>
+      <c r="V10">
+        <v>1.47</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>1.33</v>
       </c>
-      <c r="Q5">
-        <v>3.25</v>
-      </c>
-      <c r="R5">
-        <v>1.57</v>
-      </c>
-      <c r="S5">
-        <v>2.25</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1.3</v>
-      </c>
-      <c r="X5">
-        <v>0.89</v>
-      </c>
-      <c r="Y5">
-        <v>1.31</v>
-      </c>
-      <c r="Z5">
-        <v>1.36</v>
-      </c>
-      <c r="AA5">
-        <v>2.67</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
+      <c r="Y10">
+        <v>1.81</v>
+      </c>
+      <c r="Z10">
+        <v>1.48</v>
+      </c>
+      <c r="AA10">
+        <v>3.29</v>
+      </c>
+      <c r="AB10">
+        <v>2.06</v>
+      </c>
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
+        <v>2.06</v>
+      </c>
+      <c r="AE10">
+        <v>1.2</v>
+      </c>
+      <c r="AF10">
+        <v>1.38</v>
+      </c>
+      <c r="AG10">
+        <v>1.67</v>
+      </c>
+      <c r="AH10">
+        <v>2.12</v>
+      </c>
+      <c r="AI10">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -160,12 +160,12 @@
     <t>Lanús</t>
   </si>
   <si>
+    <t>Orlando City</t>
+  </si>
+  <si>
     <t>Inter Miami</t>
   </si>
   <si>
-    <t>Orlando City</t>
-  </si>
-  <si>
     <t>FC Dallas</t>
   </si>
   <si>
@@ -187,10 +187,10 @@
     <t>Vélez Sarsfield</t>
   </si>
   <si>
+    <t>Toronto</t>
+  </si>
+  <si>
     <t>Columbus Crew</t>
-  </si>
-  <si>
-    <t>Toronto</t>
   </si>
   <si>
     <t>DC United</t>
@@ -703,10 +703,10 @@
         <v>1.51</v>
       </c>
       <c r="H2">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="I2">
-        <v>5.6</v>
+        <v>5.35</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="O2">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="P2">
         <v>1.36</v>
@@ -914,67 +914,67 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>2.19</v>
+        <v>1.94</v>
       </c>
       <c r="H4">
+        <v>3.75</v>
+      </c>
+      <c r="I4">
         <v>3.72</v>
       </c>
-      <c r="I4">
-        <v>2.94</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="P4">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R4">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="W4">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X4">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="Y4">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="Z4">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AA4">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>58</v>
       </c>
       <c r="G5">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="H5">
-        <v>3.68</v>
+        <v>3.82</v>
       </c>
       <c r="I5">
-        <v>3.63</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1042,22 +1042,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="O5">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="P5">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1069,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X5">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="Y5">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="Z5">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AA5">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1128,31 +1128,31 @@
         <v>59</v>
       </c>
       <c r="G6">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H6">
-        <v>3.67</v>
+        <v>3.75</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="N6">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="O6">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -1167,13 +1167,13 @@
         <v>2.1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W6">
         <v>2</v>
@@ -1235,13 +1235,13 @@
         <v>60</v>
       </c>
       <c r="G7">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H7">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P7">
         <v>1.4</v>
@@ -1289,13 +1289,13 @@
         <v>1.38</v>
       </c>
       <c r="Y7">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
         <v>1.13</v>
       </c>
       <c r="AA7">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>61</v>
       </c>
       <c r="G8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8">
         <v>2.15</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P8">
         <v>1.36</v>
@@ -1452,10 +1452,10 @@
         <v>2.21</v>
       </c>
       <c r="H9">
-        <v>3.52</v>
+        <v>3.58</v>
       </c>
       <c r="I9">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="O9">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="P9">
         <v>1.44</v>
@@ -1488,13 +1488,13 @@
         <v>1.91</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W9">
         <v>0.5600000000000001</v>
@@ -1556,13 +1556,13 @@
         <v>63</v>
       </c>
       <c r="G10">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="I10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J10">
         <v>1.01</v>
@@ -1577,10 +1577,10 @@
         <v>4.75</v>
       </c>
       <c r="N10">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="O10">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="P10">
         <v>1.29</v>
